--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07DDF3-049C-440C-9F16-E5C04E4E3F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4E8E9-F52C-451A-B545-8535F03159D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -285,19 +285,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ExecDate &gt;= ,AND ExecDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StepStartTime DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findStatusExecDateIn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExecDate &gt;= ,AND ExecDate &lt;= ,AND Status =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -336,6 +328,26 @@
 DB000:DB異常
 LG000:邏輯錯誤</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NestJobCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子批次代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-19 Wei增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JobCode = ,AND ExecDate &gt;= ,AND ExecDate &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobCode = ,AND ExecDate &gt;= ,AND ExecDate &lt;= ,AND Status =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,10 +540,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -543,9 +555,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +567,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +623,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,9 +670,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,9 +710,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,26 +745,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,26 +780,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,30 +956,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="16" customWidth="1"/>
+    <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>38</v>
@@ -1002,82 +989,82 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1096,284 +1083,308 @@
       <c r="F8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34">
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="G9" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>8</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+    <row r="12" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>30</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14">
+        <v>15</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17" t="s">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>7</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="19" t="s">
+      <c r="E16" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>10</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="31">
+        <v>6</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>11</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>12</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="31">
+        <v>6</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>13</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>14</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>6</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="16">
-        <v>15</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="19" t="s">
+      <c r="C23" s="34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="16">
-        <v>3000</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>9</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>10</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="D23" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="33">
-        <v>6</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>11</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>12</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="33">
-        <v>6</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>13</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="E23" s="35">
         <v>30</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="25"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1397,7 +1408,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1457,21 +1468,21 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1498,23 +1509,23 @@
     <col min="5" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4E8E9-F52C-451A-B545-8535F03159D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034ACA99-0D83-41CF-BA2E-C2106E825B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -302,13 +302,7 @@
     <t>varchar2</t>
   </si>
   <si>
-    <t>JobMain(TxSeq,ExecDate,JobCode)</t>
-  </si>
-  <si>
     <t>TxSeq,ExecDate,JobCode,StepId</t>
-  </si>
-  <si>
-    <t>TxSeq,ExecDate,JobCode</t>
   </si>
   <si>
     <t>JobDetail</t>
@@ -958,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -979,7 +973,7 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>38</v>
@@ -1007,7 +1001,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1016,17 +1010,12 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="40"/>
-      <c r="C4" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="5"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1188,7 +1177,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1209,7 +1198,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1230,7 +1219,7 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1367,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>12</v>
@@ -1380,10 +1369,10 @@
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1457,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
@@ -1479,7 +1468,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>67</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034ACA99-0D83-41CF-BA2E-C2106E825B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67006A7E-23D8-471C-993C-3B5F7CCD8D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,9 +291,6 @@
   <si>
     <t>findStatusExecDateIn</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxSeq</t>
   </si>
   <si>
     <t>交易序號</t>
@@ -341,6 +338,22 @@
   </si>
   <si>
     <t>JobCode = ,AND ExecDate &gt;= ,AND ExecDate &lt;= ,AND Status =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TxSeq = ,AND JobCode = ,AND StepId = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findStepFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -973,7 +986,7 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>38</v>
@@ -1001,7 +1014,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1081,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="32">
         <v>20</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1190,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1198,7 +1211,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1219,7 +1232,7 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1356,10 +1369,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>12</v>
@@ -1369,10 +1382,10 @@
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1393,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1470,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>67</v>
@@ -1468,10 +1481,21 @@
         <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/JobDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67006A7E-23D8-471C-993C-3B5F7CCD8D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3745CD7A-254C-45FF-B28A-DB9C6E6305BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -355,6 +355,9 @@
   <si>
     <t>findStepFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1322,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="29"/>
@@ -1358,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="29"/>
@@ -1408,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
